--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1436"/>
+  <dimension ref="A1:G1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34564,10 +34564,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="G1315" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1315" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1316">
@@ -34597,10 +34595,8 @@
           <t>0.11</t>
         </is>
       </c>
-      <c r="G1316" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1316" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1317">
@@ -34634,10 +34630,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1317" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1318">
@@ -34671,10 +34665,8 @@
           <t>218.0K</t>
         </is>
       </c>
-      <c r="G1318" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1318" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1319">
@@ -34708,10 +34700,8 @@
           <t>1888.0K</t>
         </is>
       </c>
-      <c r="G1319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1320">
@@ -34745,10 +34735,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="G1320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1321">
@@ -34778,10 +34766,8 @@
           <t>222.0K</t>
         </is>
       </c>
-      <c r="G1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1322">
@@ -34815,10 +34801,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1323">
@@ -34852,10 +34836,8 @@
           <t>4.18M</t>
         </is>
       </c>
-      <c r="G1323" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1323" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1324">
@@ -34889,10 +34871,8 @@
           <t>-1.9%</t>
         </is>
       </c>
-      <c r="G1324" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1324" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1325">
@@ -34922,10 +34902,8 @@
         </is>
       </c>
       <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1326">
@@ -34955,10 +34933,8 @@
           <t>-4</t>
         </is>
       </c>
-      <c r="G1326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1327">
@@ -34988,10 +34964,8 @@
           <t>-2</t>
         </is>
       </c>
-      <c r="G1327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1328">
@@ -35017,10 +34991,8 @@
       </c>
       <c r="E1328" t="inlineStr"/>
       <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1328" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1329">
@@ -35046,10 +35018,8 @@
       </c>
       <c r="E1329" t="inlineStr"/>
       <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1330">
@@ -35075,10 +35045,8 @@
       </c>
       <c r="E1330" t="inlineStr"/>
       <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1331">
@@ -35104,10 +35072,8 @@
       </c>
       <c r="E1331" t="inlineStr"/>
       <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1332">
@@ -35133,10 +35099,8 @@
       </c>
       <c r="E1332" t="inlineStr"/>
       <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1333">
@@ -35162,10 +35126,8 @@
       </c>
       <c r="E1333" t="inlineStr"/>
       <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1334">
@@ -35183,24 +35145,38 @@
       <c r="D1334" t="inlineStr"/>
       <c r="E1334" t="inlineStr"/>
       <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
+          <t>08:45 AM</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr">
+        <is>
+          <t>Chicago PMIAPR</t>
+        </is>
+      </c>
       <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
+      <c r="D1335" t="inlineStr">
+        <is>
+          <t>47.6</t>
+        </is>
+      </c>
       <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
+      <c r="F1335" t="inlineStr">
+        <is>
+          <t>47.8</t>
+        </is>
+      </c>
+      <c r="G1335" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1336">
       <c r="A1336" t="inlineStr">
@@ -35210,23 +35186,19 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
+          <t>Pending Home Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr"/>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>57.0</t>
-        </is>
-      </c>
-      <c r="E1336" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="E1336" t="inlineStr"/>
       <c r="F1336" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1336" t="inlineStr">
@@ -35243,124 +35215,96 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
+          <t>Pending Home Sales YoYMAR</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr"/>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E1337" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+          <t>-3.6%</t>
+        </is>
+      </c>
+      <c r="E1337" t="inlineStr"/>
       <c r="F1337" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="G1337" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr"/>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>52.6</t>
-        </is>
-      </c>
-      <c r="E1338" t="inlineStr">
-        <is>
-          <t>47.1</t>
-        </is>
-      </c>
-      <c r="F1338" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
+          <t>0.244M</t>
+        </is>
+      </c>
+      <c r="E1338" t="inlineStr"/>
+      <c r="F1338" t="inlineStr"/>
       <c r="G1338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalAPR</t>
+          <t>EIA Gasoline Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1339" t="inlineStr"/>
       <c r="D1339" t="inlineStr">
         <is>
-          <t>63.8</t>
-        </is>
-      </c>
-      <c r="E1339" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F1339" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
+          <t>-4.476M</t>
+        </is>
+      </c>
+      <c r="E1339" t="inlineStr"/>
+      <c r="F1339" t="inlineStr"/>
       <c r="G1339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1340">
       <c r="A1340" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
+          <t>EIA Crude Oil Imports ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr"/>
       <c r="D1340" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1340" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F1340" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
+          <t>1.139M</t>
+        </is>
+      </c>
+      <c r="E1340" t="inlineStr"/>
+      <c r="F1340" t="inlineStr"/>
       <c r="G1340" t="inlineStr">
         <is>
           <t>3</t>
@@ -35370,18 +35314,18 @@
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr"/>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>481</t>
+          <t>-0.086M</t>
         </is>
       </c>
       <c r="E1341" t="inlineStr"/>
@@ -35395,18 +35339,18 @@
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr"/>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>-0.062M</t>
         </is>
       </c>
       <c r="E1342" t="inlineStr"/>
@@ -35420,41 +35364,77 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>Saturday April 26 2025</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr">
+        <is>
+          <t>EIA Distillate Stocks ChangeAPR/25</t>
+        </is>
+      </c>
       <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
+      <c r="D1343" t="inlineStr">
+        <is>
+          <t>-2.353M</t>
+        </is>
+      </c>
       <c r="E1343" t="inlineStr"/>
       <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
+      <c r="G1343" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>Sunday April 27 2025</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeAPR/25</t>
+        </is>
+      </c>
       <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
+      <c r="D1344" t="inlineStr">
+        <is>
+          <t>0.661M</t>
+        </is>
+      </c>
       <c r="E1344" t="inlineStr"/>
       <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>Monday April 28 2025</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeAPR/25</t>
+        </is>
+      </c>
       <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
+      <c r="D1345" t="inlineStr">
+        <is>
+          <t>-0.021M</t>
+        </is>
+      </c>
       <c r="E1345" t="inlineStr"/>
       <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
+      <c r="G1345" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1346">
       <c r="A1346" t="inlineStr">
@@ -35464,24 +35444,20 @@
       </c>
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexAPR</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1346" t="inlineStr"/>
       <c r="D1346" t="inlineStr">
         <is>
-          <t>-16.3</t>
+          <t>0.325M</t>
         </is>
       </c>
       <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="F1346" t="inlineStr"/>
       <c r="G1346" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -35493,13 +35469,13 @@
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr"/>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr"/>
@@ -35513,43 +35489,39 @@
     <row r="1348">
       <c r="A1348" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Thursday May 01 2025</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr"/>
       <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr">
-        <is>
-          <t>4.050%</t>
-        </is>
-      </c>
+      <c r="D1348" t="inlineStr"/>
       <c r="E1348" t="inlineStr"/>
       <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1348" t="inlineStr"/>
     </row>
     <row r="1349">
       <c r="A1349" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Challenger Job CutsAPR</t>
         </is>
       </c>
       <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr"/>
+      <c r="D1349" t="inlineStr">
+        <is>
+          <t>275.24K</t>
+        </is>
+      </c>
       <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr"/>
+      <c r="F1349" t="inlineStr">
+        <is>
+          <t>290K</t>
+        </is>
+      </c>
       <c r="G1349" t="inlineStr">
         <is>
           <t>3</t>
@@ -35559,15 +35531,31 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>Tuesday April 29 2025</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsAPR/26</t>
+        </is>
+      </c>
       <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr"/>
+      <c r="D1350" t="inlineStr">
+        <is>
+          <t>222K</t>
+        </is>
+      </c>
       <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
+      <c r="F1350" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
+      <c r="G1350" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
@@ -35577,24 +35565,24 @@
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvMAR</t>
+          <t>Continuing Jobless ClaimsAPR/19</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr"/>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>$-147.91B</t>
+          <t>1841K</t>
         </is>
       </c>
       <c r="E1351" t="inlineStr"/>
       <c r="F1351" t="inlineStr">
         <is>
-          <t>$-140.0B</t>
+          <t>1844.0K</t>
         </is>
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -35606,102 +35594,114 @@
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvMAR</t>
+          <t>Jobless Claims 4-week AverageAPR/26</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr"/>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>220.25K</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr"/>
       <c r="F1352" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>222.0K</t>
         </is>
       </c>
       <c r="G1352" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1353">
       <c r="A1353" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvMAR</t>
+          <t>S&amp;P Global Manufacturing PMI FinalAPR</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr"/>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1353" t="inlineStr"/>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="E1353" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
       <c r="F1353" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1354">
       <c r="A1354" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/26</t>
+          <t>ISM Manufacturing PMIAPR</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr"/>
       <c r="D1354" t="inlineStr">
         <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="E1354" t="inlineStr"/>
-      <c r="F1354" t="inlineStr"/>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>47.9</t>
+        </is>
+      </c>
+      <c r="F1354" t="inlineStr">
+        <is>
+          <t>47.2</t>
+        </is>
+      </c>
       <c r="G1354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1355">
       <c r="A1355" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYFEB</t>
+          <t>ISM Manufacturing EmploymentAPR</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr"/>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>44.7</t>
         </is>
       </c>
       <c r="E1355" t="inlineStr"/>
       <c r="F1355" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G1355" t="inlineStr">
@@ -35713,24 +35713,24 @@
     <row r="1356">
       <c r="A1356" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>House Price IndexFEB</t>
+          <t>Construction Spending MoMMAR</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr"/>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>436.5</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr"/>
       <c r="F1356" t="inlineStr">
         <is>
-          <t>441.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1356" t="inlineStr">
@@ -35742,24 +35742,24 @@
     <row r="1357">
       <c r="A1357" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>House Price Index MoMFEB</t>
+          <t>ISM Manufacturing New OrdersAPR</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr"/>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr"/>
       <c r="F1357" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="G1357" t="inlineStr">
@@ -35771,24 +35771,24 @@
     <row r="1358">
       <c r="A1358" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>House Price Index YoYFEB</t>
+          <t>ISM Manufacturing PricesAPR</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr"/>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>69.4</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr"/>
       <c r="F1358" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G1358" t="inlineStr">
@@ -35800,26 +35800,22 @@
     <row r="1359">
       <c r="A1359" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMFEB</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr"/>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>88Bcf</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr"/>
-      <c r="F1359" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
+      <c r="F1359" t="inlineStr"/>
       <c r="G1359" t="inlineStr">
         <is>
           <t>3</t>
@@ -35829,88 +35825,68 @@
     <row r="1360">
       <c r="A1360" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsMAR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr"/>
       <c r="D1360" t="inlineStr">
         <is>
-          <t>7.568M</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1360" t="inlineStr"/>
-      <c r="F1360" t="inlineStr">
-        <is>
-          <t>7.4M</t>
-        </is>
-      </c>
+      <c r="F1360" t="inlineStr"/>
       <c r="G1360" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceAPR</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr"/>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>92.9</t>
-        </is>
-      </c>
-      <c r="E1361" t="inlineStr">
-        <is>
-          <t>88.5</t>
-        </is>
-      </c>
-      <c r="F1361" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+          <t>4.225%</t>
+        </is>
+      </c>
+      <c r="E1361" t="inlineStr"/>
+      <c r="F1361" t="inlineStr"/>
       <c r="G1361" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsMAR</t>
+          <t>15-Year Mortgage RateMAY/01</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr">
-        <is>
-          <t>3.195M</t>
-        </is>
-      </c>
+      <c r="D1362" t="inlineStr"/>
       <c r="E1362" t="inlineStr"/>
-      <c r="F1362" t="inlineStr">
-        <is>
-          <t>3.19M</t>
-        </is>
-      </c>
+      <c r="F1362" t="inlineStr"/>
       <c r="G1362" t="inlineStr">
         <is>
           <t>3</t>
@@ -35920,26 +35896,22 @@
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexAPR</t>
+          <t>30-Year Mortgage RateMAY/01</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr"/>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E1363" t="inlineStr"/>
-      <c r="F1363" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
+      <c r="F1363" t="inlineStr"/>
       <c r="G1363" t="inlineStr">
         <is>
           <t>3</t>
@@ -35949,26 +35921,22 @@
     <row r="1364">
       <c r="A1364" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexAPR</t>
+          <t>Fed Balance SheetAPR/30</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr"/>
       <c r="D1364" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>$6.73T</t>
         </is>
       </c>
       <c r="E1364" t="inlineStr"/>
-      <c r="F1364" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="F1364" t="inlineStr"/>
       <c r="G1364" t="inlineStr">
         <is>
           <t>3</t>
@@ -35978,160 +35946,200 @@
     <row r="1365">
       <c r="A1365" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1365" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeAPR/25</t>
-        </is>
-      </c>
+          <t>Friday May 02 2025</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr"/>
       <c r="C1365" t="inlineStr"/>
-      <c r="D1365" t="inlineStr">
-        <is>
-          <t>-4.565M</t>
-        </is>
-      </c>
+      <c r="D1365" t="inlineStr"/>
       <c r="E1365" t="inlineStr"/>
       <c r="F1365" t="inlineStr"/>
-      <c r="G1365" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1365" t="inlineStr"/>
     </row>
     <row r="1366">
       <c r="A1366" t="inlineStr">
         <is>
-          <t>Wednesday April 30 2025</t>
-        </is>
-      </c>
-      <c r="B1366" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr">
+        <is>
+          <t>Non Farm PayrollsAPR</t>
+        </is>
+      </c>
       <c r="C1366" t="inlineStr"/>
-      <c r="D1366" t="inlineStr"/>
-      <c r="E1366" t="inlineStr"/>
-      <c r="F1366" t="inlineStr"/>
-      <c r="G1366" t="inlineStr"/>
+      <c r="D1366" t="inlineStr">
+        <is>
+          <t>228K</t>
+        </is>
+      </c>
+      <c r="E1366" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F1366" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
+      <c r="G1366" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/25</t>
+          <t>Unemployment RateAPR</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr"/>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>6.9%</t>
-        </is>
-      </c>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1367" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F1367" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="G1367" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1368">
       <c r="A1368" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/25</t>
+          <t>Average Hourly Earnings MoMAPR</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr"/>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>-12.7%</t>
-        </is>
-      </c>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E1368" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F1368" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G1368" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1369">
       <c r="A1369" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/25</t>
+          <t>Average Hourly Earnings YoYAPR</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr"/>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>233.5</t>
+          <t>3.8%</t>
         </is>
       </c>
       <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/25</t>
+          <t>Participation RateAPR</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr"/>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>673.6</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="E1370" t="inlineStr"/>
-      <c r="F1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
       <c r="G1370" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/25</t>
+          <t>Average Weekly HoursAPR</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr"/>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>153.4</t>
-        </is>
-      </c>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
+          <t>34.2</t>
+        </is>
+      </c>
+      <c r="E1371" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
+      <c r="F1371" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
       <c r="G1371" t="inlineStr">
         <is>
           <t>3</t>
@@ -36141,29 +36149,29 @@
     <row r="1372">
       <c r="A1372" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeAPR</t>
+          <t>Government PayrollsAPR</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr"/>
       <c r="D1372" t="inlineStr">
         <is>
-          <t>155K</t>
+          <t>19K</t>
         </is>
       </c>
       <c r="E1372" t="inlineStr"/>
       <c r="F1372" t="inlineStr">
         <is>
-          <t>110K</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="G1372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36175,28 +36183,24 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMMAR</t>
+          <t>Manufacturing PayrollsAPR</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr"/>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1373" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="E1373" t="inlineStr"/>
       <c r="F1373" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="G1373" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36208,28 +36212,28 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ1</t>
+          <t>Nonfarm Payrolls PrivateAPR</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr"/>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>209K</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>125K</t>
         </is>
       </c>
       <c r="F1374" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>133K</t>
         </is>
       </c>
       <c r="G1374" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36241,1667 +36245,173 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>Personal Income MoMMAR</t>
+          <t>U-6 Unemployment RateAPR</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr"/>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1375" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>7.9%</t>
+        </is>
+      </c>
+      <c r="E1375" t="inlineStr"/>
       <c r="F1375" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="G1375" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>Personal Spending MoMMAR</t>
+          <t>Factory Orders MoMMAR</t>
         </is>
       </c>
       <c r="C1376" t="inlineStr"/>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1376" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="E1376" t="inlineStr"/>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="G1376" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1377">
       <c r="A1377" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ1</t>
+          <t>Factory Orders ex TransportationMAR</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr"/>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr"/>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1377" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1378">
       <c r="A1378" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ1</t>
+          <t>Baker Hughes Oil Rig CountMAY/02</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="D1378" t="inlineStr"/>
       <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="F1378" t="inlineStr"/>
       <c r="G1378" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ1</t>
+          <t>Baker Hughes Total Rigs CountMAY/02</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
+      <c r="D1379" t="inlineStr"/>
       <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1379" t="inlineStr"/>
       <c r="G1379" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1380">
-      <c r="A1380" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
+      <c r="A1380" t="inlineStr"/>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ AdvQ1</t>
+          <t>Total Vehicle SalesAPR</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr"/>
       <c r="D1380" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>17.77M</t>
         </is>
       </c>
       <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr">
-        <is>
-          <t>127.3%</t>
-        </is>
-      </c>
+      <c r="F1380" t="inlineStr"/>
       <c r="G1380" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1381" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMMAR</t>
-        </is>
-      </c>
+          <t>Sunday May 04 2025</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr"/>
       <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="D1381" t="inlineStr"/>
       <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="G1381" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
     </row>
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1382" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYMAR</t>
-        </is>
-      </c>
+          <t>Monday May 05 2025</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr"/>
       <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="D1382" t="inlineStr"/>
       <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G1382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1383">
-      <c r="A1383" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1383" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
-      <c r="G1383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1384">
-      <c r="A1384" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1384" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G1384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1385">
-      <c r="A1385" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1385" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="G1385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1386">
-      <c r="A1386" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1386" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="G1386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1387">
-      <c r="A1387" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1387" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ AdvQ1</t>
-        </is>
-      </c>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G1387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1388">
-      <c r="A1388" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1388" t="inlineStr">
-        <is>
-          <t>Treasury Refunding Announcement</t>
-        </is>
-      </c>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1389">
-      <c r="A1389" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1389" t="inlineStr">
-        <is>
-          <t>Chicago PMIAPR</t>
-        </is>
-      </c>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr">
-        <is>
-          <t>47.6</t>
-        </is>
-      </c>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr">
-        <is>
-          <t>47.8</t>
-        </is>
-      </c>
-      <c r="G1389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1390">
-      <c r="A1390" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1390" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G1390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1391">
-      <c r="A1391" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1391" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr">
-        <is>
-          <t>-3.6%</t>
-        </is>
-      </c>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
-      <c r="G1391" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1392">
-      <c r="A1392" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1392" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr">
-        <is>
-          <t>0.244M</t>
-        </is>
-      </c>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1393">
-      <c r="A1393" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1393" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr">
-        <is>
-          <t>-4.476M</t>
-        </is>
-      </c>
-      <c r="E1393" t="inlineStr"/>
-      <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1394">
-      <c r="A1394" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1394" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1394" t="inlineStr"/>
-      <c r="D1394" t="inlineStr">
-        <is>
-          <t>1.139M</t>
-        </is>
-      </c>
-      <c r="E1394" t="inlineStr"/>
-      <c r="F1394" t="inlineStr"/>
-      <c r="G1394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1395">
-      <c r="A1395" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1395" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1395" t="inlineStr"/>
-      <c r="D1395" t="inlineStr">
-        <is>
-          <t>-0.086M</t>
-        </is>
-      </c>
-      <c r="E1395" t="inlineStr"/>
-      <c r="F1395" t="inlineStr"/>
-      <c r="G1395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1396">
-      <c r="A1396" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1396" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1396" t="inlineStr"/>
-      <c r="D1396" t="inlineStr">
-        <is>
-          <t>-0.062M</t>
-        </is>
-      </c>
-      <c r="E1396" t="inlineStr"/>
-      <c r="F1396" t="inlineStr"/>
-      <c r="G1396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1397">
-      <c r="A1397" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1397" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1397" t="inlineStr"/>
-      <c r="D1397" t="inlineStr">
-        <is>
-          <t>-2.353M</t>
-        </is>
-      </c>
-      <c r="E1397" t="inlineStr"/>
-      <c r="F1397" t="inlineStr"/>
-      <c r="G1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1398">
-      <c r="A1398" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1398" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1398" t="inlineStr"/>
-      <c r="D1398" t="inlineStr">
-        <is>
-          <t>0.661M</t>
-        </is>
-      </c>
-      <c r="E1398" t="inlineStr"/>
-      <c r="F1398" t="inlineStr"/>
-      <c r="G1398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1399">
-      <c r="A1399" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1399" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1399" t="inlineStr"/>
-      <c r="D1399" t="inlineStr">
-        <is>
-          <t>-0.021M</t>
-        </is>
-      </c>
-      <c r="E1399" t="inlineStr"/>
-      <c r="F1399" t="inlineStr"/>
-      <c r="G1399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1400">
-      <c r="A1400" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1400" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1400" t="inlineStr"/>
-      <c r="D1400" t="inlineStr">
-        <is>
-          <t>0.325M</t>
-        </is>
-      </c>
-      <c r="E1400" t="inlineStr"/>
-      <c r="F1400" t="inlineStr"/>
-      <c r="G1400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1401">
-      <c r="A1401" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1401" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1401" t="inlineStr"/>
-      <c r="D1401" t="inlineStr">
-        <is>
-          <t>4.210%</t>
-        </is>
-      </c>
-      <c r="E1401" t="inlineStr"/>
-      <c r="F1401" t="inlineStr"/>
-      <c r="G1401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1402">
-      <c r="A1402" t="inlineStr">
-        <is>
-          <t>Thursday May 01 2025</t>
-        </is>
-      </c>
-      <c r="B1402" t="inlineStr"/>
-      <c r="C1402" t="inlineStr"/>
-      <c r="D1402" t="inlineStr"/>
-      <c r="E1402" t="inlineStr"/>
-      <c r="F1402" t="inlineStr"/>
-      <c r="G1402" t="inlineStr"/>
-    </row>
-    <row r="1403">
-      <c r="A1403" t="inlineStr">
-        <is>
-          <t>06:30 AM</t>
-        </is>
-      </c>
-      <c r="B1403" t="inlineStr">
-        <is>
-          <t>Challenger Job CutsAPR</t>
-        </is>
-      </c>
-      <c r="C1403" t="inlineStr"/>
-      <c r="D1403" t="inlineStr">
-        <is>
-          <t>275.24K</t>
-        </is>
-      </c>
-      <c r="E1403" t="inlineStr"/>
-      <c r="F1403" t="inlineStr">
-        <is>
-          <t>290K</t>
-        </is>
-      </c>
-      <c r="G1403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1404">
-      <c r="A1404" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1404" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsAPR/26</t>
-        </is>
-      </c>
-      <c r="C1404" t="inlineStr"/>
-      <c r="D1404" t="inlineStr">
-        <is>
-          <t>222K</t>
-        </is>
-      </c>
-      <c r="E1404" t="inlineStr"/>
-      <c r="F1404" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1405">
-      <c r="A1405" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1405" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsAPR/19</t>
-        </is>
-      </c>
-      <c r="C1405" t="inlineStr"/>
-      <c r="D1405" t="inlineStr">
-        <is>
-          <t>1841K</t>
-        </is>
-      </c>
-      <c r="E1405" t="inlineStr"/>
-      <c r="F1405" t="inlineStr">
-        <is>
-          <t>1844.0K</t>
-        </is>
-      </c>
-      <c r="G1405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1406">
-      <c r="A1406" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1406" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageAPR/26</t>
-        </is>
-      </c>
-      <c r="C1406" t="inlineStr"/>
-      <c r="D1406" t="inlineStr">
-        <is>
-          <t>220.25K</t>
-        </is>
-      </c>
-      <c r="E1406" t="inlineStr"/>
-      <c r="F1406" t="inlineStr">
-        <is>
-          <t>222.0K</t>
-        </is>
-      </c>
-      <c r="G1406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1407">
-      <c r="A1407" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1407" t="inlineStr">
-        <is>
-          <t>S&amp;P Global Manufacturing PMI FinalAPR</t>
-        </is>
-      </c>
-      <c r="C1407" t="inlineStr"/>
-      <c r="D1407" t="inlineStr">
-        <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="E1407" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
-      <c r="F1407" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
-      <c r="G1407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1408">
-      <c r="A1408" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1408" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PMIAPR</t>
-        </is>
-      </c>
-      <c r="C1408" t="inlineStr"/>
-      <c r="D1408" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E1408" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
-      <c r="F1408" t="inlineStr">
-        <is>
-          <t>47.2</t>
-        </is>
-      </c>
-      <c r="G1408" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1409">
-      <c r="A1409" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1409" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing EmploymentAPR</t>
-        </is>
-      </c>
-      <c r="C1409" t="inlineStr"/>
-      <c r="D1409" t="inlineStr">
-        <is>
-          <t>44.7</t>
-        </is>
-      </c>
-      <c r="E1409" t="inlineStr"/>
-      <c r="F1409" t="inlineStr">
-        <is>
-          <t>44.1</t>
-        </is>
-      </c>
-      <c r="G1409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1410">
-      <c r="A1410" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1410" t="inlineStr">
-        <is>
-          <t>Construction Spending MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1411">
-      <c r="A1411" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1411" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing New OrdersAPR</t>
-        </is>
-      </c>
-      <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr">
-        <is>
-          <t>45.2</t>
-        </is>
-      </c>
-      <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
-      <c r="G1411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1412" t="inlineStr">
-        <is>
-          <t>ISM Manufacturing PricesAPR</t>
-        </is>
-      </c>
-      <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="inlineStr">
-        <is>
-          <t>69.4</t>
-        </is>
-      </c>
-      <c r="E1412" t="inlineStr"/>
-      <c r="F1412" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="G1412" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1413">
-      <c r="A1413" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/25</t>
-        </is>
-      </c>
-      <c r="C1413" t="inlineStr"/>
-      <c r="D1413" t="inlineStr">
-        <is>
-          <t>88Bcf</t>
-        </is>
-      </c>
-      <c r="E1413" t="inlineStr"/>
-      <c r="F1413" t="inlineStr"/>
-      <c r="G1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1414">
-      <c r="A1414" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1414" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1414" t="inlineStr"/>
-      <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr"/>
-      <c r="G1415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/01</t>
-        </is>
-      </c>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1417">
-      <c r="A1417" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1417" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/01</t>
-        </is>
-      </c>
-      <c r="C1417" t="inlineStr"/>
-      <c r="D1417" t="inlineStr">
-        <is>
-          <t>6.81%</t>
-        </is>
-      </c>
-      <c r="E1417" t="inlineStr"/>
-      <c r="F1417" t="inlineStr"/>
-      <c r="G1417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1418">
-      <c r="A1418" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1418" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetAPR/30</t>
-        </is>
-      </c>
-      <c r="C1418" t="inlineStr"/>
-      <c r="D1418" t="inlineStr">
-        <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
-      <c r="E1418" t="inlineStr"/>
-      <c r="F1418" t="inlineStr"/>
-      <c r="G1418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1419">
-      <c r="A1419" t="inlineStr">
-        <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1419" t="inlineStr"/>
-      <c r="C1419" t="inlineStr"/>
-      <c r="D1419" t="inlineStr"/>
-      <c r="E1419" t="inlineStr"/>
-      <c r="F1419" t="inlineStr"/>
-      <c r="G1419" t="inlineStr"/>
-    </row>
-    <row r="1420">
-      <c r="A1420" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1420" t="inlineStr">
-        <is>
-          <t>Non Farm PayrollsAPR</t>
-        </is>
-      </c>
-      <c r="C1420" t="inlineStr"/>
-      <c r="D1420" t="inlineStr">
-        <is>
-          <t>228K</t>
-        </is>
-      </c>
-      <c r="E1420" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="F1420" t="inlineStr">
-        <is>
-          <t>140K</t>
-        </is>
-      </c>
-      <c r="G1420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1421">
-      <c r="A1421" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1421" t="inlineStr">
-        <is>
-          <t>Unemployment RateAPR</t>
-        </is>
-      </c>
-      <c r="C1421" t="inlineStr"/>
-      <c r="D1421" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1421" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F1421" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1421" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1422">
-      <c r="A1422" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1422" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1422" t="inlineStr"/>
-      <c r="D1422" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1422" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F1422" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1423">
-      <c r="A1423" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1423" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1423" t="inlineStr"/>
-      <c r="D1423" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1423" t="inlineStr"/>
-      <c r="F1423" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="G1423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1424">
-      <c r="A1424" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1424" t="inlineStr">
-        <is>
-          <t>Participation RateAPR</t>
-        </is>
-      </c>
-      <c r="C1424" t="inlineStr"/>
-      <c r="D1424" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="E1424" t="inlineStr"/>
-      <c r="F1424" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="G1424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1425">
-      <c r="A1425" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1425" t="inlineStr">
-        <is>
-          <t>Average Weekly HoursAPR</t>
-        </is>
-      </c>
-      <c r="C1425" t="inlineStr"/>
-      <c r="D1425" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1425" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="F1425" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="G1425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1426">
-      <c r="A1426" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1426" t="inlineStr">
-        <is>
-          <t>Government PayrollsAPR</t>
-        </is>
-      </c>
-      <c r="C1426" t="inlineStr"/>
-      <c r="D1426" t="inlineStr">
-        <is>
-          <t>19K</t>
-        </is>
-      </c>
-      <c r="E1426" t="inlineStr"/>
-      <c r="F1426" t="inlineStr">
-        <is>
-          <t>-3K</t>
-        </is>
-      </c>
-      <c r="G1426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1427">
-      <c r="A1427" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1427" t="inlineStr">
-        <is>
-          <t>Manufacturing PayrollsAPR</t>
-        </is>
-      </c>
-      <c r="C1427" t="inlineStr"/>
-      <c r="D1427" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="E1427" t="inlineStr"/>
-      <c r="F1427" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
-      <c r="G1427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1428">
-      <c r="A1428" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1428" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
-        </is>
-      </c>
-      <c r="C1428" t="inlineStr"/>
-      <c r="D1428" t="inlineStr">
-        <is>
-          <t>209K</t>
-        </is>
-      </c>
-      <c r="E1428" t="inlineStr">
-        <is>
-          <t>125K</t>
-        </is>
-      </c>
-      <c r="F1428" t="inlineStr">
-        <is>
-          <t>133K</t>
-        </is>
-      </c>
-      <c r="G1428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1429">
-      <c r="A1429" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1429" t="inlineStr">
-        <is>
-          <t>U-6 Unemployment RateAPR</t>
-        </is>
-      </c>
-      <c r="C1429" t="inlineStr"/>
-      <c r="D1429" t="inlineStr">
-        <is>
-          <t>7.9%</t>
-        </is>
-      </c>
-      <c r="E1429" t="inlineStr"/>
-      <c r="F1429" t="inlineStr">
-        <is>
-          <t>8.0%</t>
-        </is>
-      </c>
-      <c r="G1429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1430">
-      <c r="A1430" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1430" t="inlineStr">
-        <is>
-          <t>Factory Orders MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1430" t="inlineStr"/>
-      <c r="D1430" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E1430" t="inlineStr"/>
-      <c r="F1430" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="G1430" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1431">
-      <c r="A1431" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1431" t="inlineStr">
-        <is>
-          <t>Factory Orders ex TransportationMAR</t>
-        </is>
-      </c>
-      <c r="C1431" t="inlineStr"/>
-      <c r="D1431" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1431" t="inlineStr"/>
-      <c r="F1431" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1432">
-      <c r="A1432" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1432" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
-        </is>
-      </c>
-      <c r="C1432" t="inlineStr"/>
-      <c r="D1432" t="inlineStr"/>
-      <c r="E1432" t="inlineStr"/>
-      <c r="F1432" t="inlineStr"/>
-      <c r="G1432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1433">
-      <c r="A1433" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1433" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
-        </is>
-      </c>
-      <c r="C1433" t="inlineStr"/>
-      <c r="D1433" t="inlineStr"/>
-      <c r="E1433" t="inlineStr"/>
-      <c r="F1433" t="inlineStr"/>
-      <c r="G1433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1434">
-      <c r="A1434" t="inlineStr"/>
-      <c r="B1434" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesAPR</t>
-        </is>
-      </c>
-      <c r="C1434" t="inlineStr"/>
-      <c r="D1434" t="inlineStr">
-        <is>
-          <t>17.77M</t>
-        </is>
-      </c>
-      <c r="E1434" t="inlineStr"/>
-      <c r="F1434" t="inlineStr"/>
-      <c r="G1434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1435">
-      <c r="A1435" t="inlineStr">
-        <is>
-          <t>Sunday May 04 2025</t>
-        </is>
-      </c>
-      <c r="B1435" t="inlineStr"/>
-      <c r="C1435" t="inlineStr"/>
-      <c r="D1435" t="inlineStr"/>
-      <c r="E1435" t="inlineStr"/>
-      <c r="F1435" t="inlineStr"/>
-      <c r="G1435" t="inlineStr"/>
-    </row>
-    <row r="1436">
-      <c r="A1436" t="inlineStr">
-        <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1436" t="inlineStr"/>
-      <c r="C1436" t="inlineStr"/>
-      <c r="D1436" t="inlineStr"/>
-      <c r="E1436" t="inlineStr"/>
-      <c r="F1436" t="inlineStr"/>
-      <c r="G1436" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-05-05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1416"/>
+  <dimension ref="A1:G1414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34536,15 +34536,35 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>Friday April 25 2025</t>
-        </is>
-      </c>
-      <c r="B1315" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1315" t="inlineStr">
+        <is>
+          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
+        </is>
+      </c>
       <c r="C1315" t="inlineStr"/>
-      <c r="D1315" t="inlineStr"/>
-      <c r="E1315" t="inlineStr"/>
-      <c r="F1315" t="inlineStr"/>
-      <c r="G1315" t="inlineStr"/>
+      <c r="D1315" t="inlineStr">
+        <is>
+          <t>4.1%</t>
+        </is>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="F1315" t="inlineStr">
+        <is>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="G1315" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1316">
       <c r="A1316" t="inlineStr">
@@ -34554,28 +34574,28 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalAPR</t>
+          <t>Michigan Consumer Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr"/>
       <c r="D1316" t="inlineStr">
         <is>
-          <t>57.0</t>
+          <t>52.6</t>
         </is>
       </c>
       <c r="E1316" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="F1316" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="G1316" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -34587,23 +34607,23 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalAPR</t>
+          <t>Michigan Current Conditions FinalAPR</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr"/>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>4.1%</t>
+          <t>63.8</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="F1317" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>56.5</t>
         </is>
       </c>
       <c r="G1317" t="inlineStr">
@@ -34620,23 +34640,23 @@
       </c>
       <c r="B1318" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalAPR</t>
+          <t>Michigan Inflation Expectations FinalAPR</t>
         </is>
       </c>
       <c r="C1318" t="inlineStr"/>
       <c r="D1318" t="inlineStr">
         <is>
-          <t>52.6</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E1318" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F1318" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="G1318" t="inlineStr">
@@ -34648,30 +34668,26 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalAPR</t>
+          <t>Baker Hughes Oil Rig CountAPR/25</t>
         </is>
       </c>
       <c r="C1319" t="inlineStr"/>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>63.8</t>
+          <t>481</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr">
         <is>
-          <t>56.5</t>
-        </is>
-      </c>
-      <c r="F1319" t="inlineStr">
-        <is>
-          <t>56.5</t>
-        </is>
-      </c>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="F1319" t="inlineStr"/>
       <c r="G1319" t="inlineStr">
         <is>
           <t>3</t>
@@ -34681,30 +34697,22 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalAPR</t>
+          <t>Baker Hughes Total Rigs CountAPR/25</t>
         </is>
       </c>
       <c r="C1320" t="inlineStr"/>
       <c r="D1320" t="inlineStr">
         <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="E1320" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
-      <c r="F1320" t="inlineStr">
-        <is>
-          <t>6.7%</t>
-        </is>
-      </c>
+          <t>585</t>
+        </is>
+      </c>
+      <c r="E1320" t="inlineStr"/>
+      <c r="F1320" t="inlineStr"/>
       <c r="G1320" t="inlineStr">
         <is>
           <t>3</t>
@@ -34714,57 +34722,33 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountAPR/25</t>
-        </is>
-      </c>
+          <t>Saturday April 26 2025</t>
+        </is>
+      </c>
+      <c r="B1321" t="inlineStr"/>
       <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr">
-        <is>
-          <t>481</t>
-        </is>
-      </c>
+      <c r="D1321" t="inlineStr"/>
       <c r="E1321" t="inlineStr"/>
       <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1321" t="inlineStr"/>
     </row>
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountAPR/25</t>
-        </is>
-      </c>
+          <t>Sunday April 27 2025</t>
+        </is>
+      </c>
+      <c r="B1322" t="inlineStr"/>
       <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr">
-        <is>
-          <t>585</t>
-        </is>
-      </c>
+      <c r="D1322" t="inlineStr"/>
       <c r="E1322" t="inlineStr"/>
       <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1322" t="inlineStr"/>
     </row>
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Saturday April 26 2025</t>
+          <t>Monday April 28 2025</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -34777,75 +34761,95 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>Sunday April 27 2025</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr"/>
+          <t>09:30 AM</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr">
+        <is>
+          <t>Dallas Fed Manufacturing IndexAPR</t>
+        </is>
+      </c>
       <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
+      <c r="D1324" t="inlineStr">
+        <is>
+          <t>-16.3</t>
+        </is>
+      </c>
       <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
+      <c r="F1324" t="inlineStr">
+        <is>
+          <t>-15</t>
+        </is>
+      </c>
+      <c r="G1324" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>Monday April 28 2025</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr">
+        <is>
+          <t>3-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
+      <c r="D1325" t="inlineStr">
+        <is>
+          <t>4.225%</t>
+        </is>
+      </c>
       <c r="E1325" t="inlineStr"/>
       <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
+      <c r="G1325" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexAPR</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1326" t="inlineStr"/>
       <c r="D1326" t="inlineStr">
         <is>
-          <t>-16.3</t>
+          <t>4.050%</t>
         </is>
       </c>
       <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr">
-        <is>
-          <t>-15</t>
-        </is>
-      </c>
+      <c r="F1326" t="inlineStr"/>
       <c r="G1326" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1327">
       <c r="A1327" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B1327" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Treasury Refunding Financing Estimates</t>
         </is>
       </c>
       <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
+      <c r="D1327" t="inlineStr"/>
       <c r="E1327" t="inlineStr"/>
       <c r="F1327" t="inlineStr"/>
       <c r="G1327" t="inlineStr">
@@ -34857,61 +34861,73 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
+          <t>Tuesday April 29 2025</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr"/>
       <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr">
-        <is>
-          <t>4.050%</t>
-        </is>
-      </c>
+      <c r="D1328" t="inlineStr"/>
       <c r="E1328" t="inlineStr"/>
       <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1328" t="inlineStr"/>
     </row>
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr">
         <is>
-          <t>Treasury Refunding Financing Estimates</t>
+          <t>Goods Trade Balance AdvMAR</t>
         </is>
       </c>
       <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
+      <c r="D1329" t="inlineStr">
+        <is>
+          <t>$-147.91B</t>
+        </is>
+      </c>
       <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
+      <c r="F1329" t="inlineStr">
+        <is>
+          <t>$-140.0B</t>
+        </is>
+      </c>
       <c r="G1329" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>Tuesday April 29 2025</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr">
+        <is>
+          <t>Retail Inventories Ex Autos MoM AdvMAR</t>
+        </is>
+      </c>
       <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
+      <c r="D1330" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
+      <c r="F1330" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G1330" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1331">
       <c r="A1331" t="inlineStr">
@@ -34921,19 +34937,19 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvMAR</t>
+          <t>Wholesale Inventories MoM AdvMAR</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr"/>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>$-147.91B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
       <c r="F1331" t="inlineStr">
         <is>
-          <t>$-140.0B</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1331" t="inlineStr">
@@ -34945,53 +34961,49 @@
     <row r="1332">
       <c r="A1332" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvMAR</t>
+          <t>Redbook YoYAPR/26</t>
         </is>
       </c>
       <c r="C1332" t="inlineStr"/>
       <c r="D1332" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>7.4%</t>
         </is>
       </c>
       <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1332" t="inlineStr"/>
       <c r="G1332" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvMAR</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYFEB</t>
         </is>
       </c>
       <c r="C1333" t="inlineStr"/>
       <c r="D1333" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="E1333" t="inlineStr"/>
       <c r="F1333" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="G1333" t="inlineStr">
@@ -35003,22 +35015,26 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr">
         <is>
-          <t>Redbook YoYAPR/26</t>
+          <t>House Price IndexFEB</t>
         </is>
       </c>
       <c r="C1334" t="inlineStr"/>
       <c r="D1334" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>436.5</t>
         </is>
       </c>
       <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
+      <c r="F1334" t="inlineStr">
+        <is>
+          <t>441.2</t>
+        </is>
+      </c>
       <c r="G1334" t="inlineStr">
         <is>
           <t>3</t>
@@ -35033,24 +35049,24 @@
       </c>
       <c r="B1335" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYFEB</t>
+          <t>House Price Index MoMFEB</t>
         </is>
       </c>
       <c r="C1335" t="inlineStr"/>
       <c r="D1335" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E1335" t="inlineStr"/>
       <c r="F1335" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>1%</t>
         </is>
       </c>
       <c r="G1335" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -35062,19 +35078,19 @@
       </c>
       <c r="B1336" t="inlineStr">
         <is>
-          <t>House Price IndexFEB</t>
+          <t>House Price Index YoYFEB</t>
         </is>
       </c>
       <c r="C1336" t="inlineStr"/>
       <c r="D1336" t="inlineStr">
         <is>
-          <t>436.5</t>
+          <t>4.8%</t>
         </is>
       </c>
       <c r="E1336" t="inlineStr"/>
       <c r="F1336" t="inlineStr">
         <is>
-          <t>441.2</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="G1336" t="inlineStr">
@@ -35091,19 +35107,19 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>House Price Index MoMFEB</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMFEB</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr"/>
       <c r="D1337" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1337" t="inlineStr"/>
       <c r="F1337" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G1337" t="inlineStr">
@@ -35115,58 +35131,62 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>House Price Index YoYFEB</t>
+          <t>JOLTs Job OpeningsMAR</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr"/>
       <c r="D1338" t="inlineStr">
         <is>
-          <t>4.8%</t>
+          <t>7.568M</t>
         </is>
       </c>
       <c r="E1338" t="inlineStr"/>
       <c r="F1338" t="inlineStr">
         <is>
-          <t>4.7%</t>
+          <t>7.4M</t>
         </is>
       </c>
       <c r="G1338" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMFEB</t>
+          <t>CB Consumer ConfidenceAPR</t>
         </is>
       </c>
       <c r="C1339" t="inlineStr"/>
       <c r="D1339" t="inlineStr">
         <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1339" t="inlineStr"/>
+          <t>92.9</t>
+        </is>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>88.5</t>
+        </is>
+      </c>
       <c r="F1339" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>89</t>
         </is>
       </c>
       <c r="G1339" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35178,81 +35198,77 @@
       </c>
       <c r="B1340" t="inlineStr">
         <is>
-          <t>JOLTs Job OpeningsMAR</t>
+          <t>JOLTs Job QuitsMAR</t>
         </is>
       </c>
       <c r="C1340" t="inlineStr"/>
       <c r="D1340" t="inlineStr">
         <is>
-          <t>7.568M</t>
+          <t>3.195M</t>
         </is>
       </c>
       <c r="E1340" t="inlineStr"/>
       <c r="F1340" t="inlineStr">
         <is>
-          <t>7.4M</t>
+          <t>3.19M</t>
         </is>
       </c>
       <c r="G1340" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1341">
       <c r="A1341" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1341" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceAPR</t>
+          <t>Dallas Fed Services IndexAPR</t>
         </is>
       </c>
       <c r="C1341" t="inlineStr"/>
       <c r="D1341" t="inlineStr">
         <is>
-          <t>92.9</t>
-        </is>
-      </c>
-      <c r="E1341" t="inlineStr">
-        <is>
-          <t>88.5</t>
-        </is>
-      </c>
+          <t>-11.3</t>
+        </is>
+      </c>
+      <c r="E1341" t="inlineStr"/>
       <c r="F1341" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>-9</t>
         </is>
       </c>
       <c r="G1341" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1342">
       <c r="A1342" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1342" t="inlineStr">
         <is>
-          <t>JOLTs Job QuitsMAR</t>
+          <t>Dallas Fed Services Revenues IndexAPR</t>
         </is>
       </c>
       <c r="C1342" t="inlineStr"/>
       <c r="D1342" t="inlineStr">
         <is>
-          <t>3.195M</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="E1342" t="inlineStr"/>
       <c r="F1342" t="inlineStr">
         <is>
-          <t>3.19M</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G1342" t="inlineStr">
@@ -35264,76 +35280,56 @@
     <row r="1343">
       <c r="A1343" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1343" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexAPR</t>
+          <t>API Crude Oil Stock ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1343" t="inlineStr"/>
       <c r="D1343" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>-4.565M</t>
         </is>
       </c>
       <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr">
-        <is>
-          <t>-9</t>
-        </is>
-      </c>
+      <c r="F1343" t="inlineStr"/>
       <c r="G1343" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1344">
       <c r="A1344" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexAPR</t>
-        </is>
-      </c>
+          <t>Wednesday April 30 2025</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr"/>
       <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr">
-        <is>
-          <t>1.3</t>
-        </is>
-      </c>
+      <c r="D1344" t="inlineStr"/>
       <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G1344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr"/>
     </row>
     <row r="1345">
       <c r="A1345" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeAPR/25</t>
+          <t>MBA 30-Year Mortgage RateAPR/25</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr"/>
       <c r="D1345" t="inlineStr">
         <is>
-          <t>-4.565M</t>
+          <t>6.9%</t>
         </is>
       </c>
       <c r="E1345" t="inlineStr"/>
@@ -35347,15 +35343,27 @@
     <row r="1346">
       <c r="A1346" t="inlineStr">
         <is>
-          <t>Wednesday April 30 2025</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsAPR/25</t>
+        </is>
+      </c>
       <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
+      <c r="D1346" t="inlineStr">
+        <is>
+          <t>-12.7%</t>
+        </is>
+      </c>
       <c r="E1346" t="inlineStr"/>
       <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
+      <c r="G1346" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1347">
       <c r="A1347" t="inlineStr">
@@ -35365,20 +35373,20 @@
       </c>
       <c r="B1347" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateAPR/25</t>
+          <t>MBA Mortgage Market IndexAPR/25</t>
         </is>
       </c>
       <c r="C1347" t="inlineStr"/>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>6.9%</t>
+          <t>233.5</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr"/>
       <c r="F1347" t="inlineStr"/>
       <c r="G1347" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -35390,13 +35398,13 @@
       </c>
       <c r="B1348" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsAPR/25</t>
+          <t>MBA Mortgage Refinance IndexAPR/25</t>
         </is>
       </c>
       <c r="C1348" t="inlineStr"/>
       <c r="D1348" t="inlineStr">
         <is>
-          <t>-12.7%</t>
+          <t>673.6</t>
         </is>
       </c>
       <c r="E1348" t="inlineStr"/>
@@ -35415,13 +35423,13 @@
       </c>
       <c r="B1349" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexAPR/25</t>
+          <t>MBA Purchase IndexAPR/25</t>
         </is>
       </c>
       <c r="C1349" t="inlineStr"/>
       <c r="D1349" t="inlineStr">
         <is>
-          <t>233.5</t>
+          <t>153.4</t>
         </is>
       </c>
       <c r="E1349" t="inlineStr"/>
@@ -35435,74 +35443,90 @@
     <row r="1350">
       <c r="A1350" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:15 AM</t>
         </is>
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexAPR/25</t>
+          <t>ADP Employment ChangeAPR</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr"/>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>673.6</t>
-        </is>
-      </c>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
+          <t>155K</t>
+        </is>
+      </c>
+      <c r="E1350" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F1350" t="inlineStr">
+        <is>
+          <t>110K</t>
+        </is>
+      </c>
       <c r="G1350" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1351">
       <c r="A1351" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexAPR/25</t>
+          <t>GDP Growth Rate QoQ AdvQ1</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr"/>
       <c r="D1351" t="inlineStr">
         <is>
-          <t>153.4</t>
-        </is>
-      </c>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1351" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="F1351" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1352">
       <c r="A1352" t="inlineStr">
         <is>
-          <t>07:15 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>ADP Employment ChangeAPR</t>
+          <t>Employment Cost - Benefits QoQQ1</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr"/>
       <c r="D1352" t="inlineStr">
         <is>
-          <t>155K</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E1352" t="inlineStr"/>
       <c r="F1352" t="inlineStr">
         <is>
-          <t>110K</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1352" t="inlineStr">
@@ -35519,28 +35543,24 @@
       </c>
       <c r="B1353" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ AdvQ1</t>
+          <t>Employment Cost - Wages QoQQ1</t>
         </is>
       </c>
       <c r="C1353" t="inlineStr"/>
       <c r="D1353" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1353" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1353" t="inlineStr"/>
       <c r="F1353" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1353" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35552,16 +35572,20 @@
       </c>
       <c r="B1354" t="inlineStr">
         <is>
-          <t>Employment Cost - Benefits QoQQ1</t>
+          <t>Employment Cost Index QoQQ1</t>
         </is>
       </c>
       <c r="C1354" t="inlineStr"/>
       <c r="D1354" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1354" t="inlineStr"/>
+          <t>0.9%</t>
+        </is>
+      </c>
+      <c r="E1354" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="F1354" t="inlineStr">
         <is>
           <t>0.8%</t>
@@ -35581,19 +35605,19 @@
       </c>
       <c r="B1355" t="inlineStr">
         <is>
-          <t>Employment Cost - Wages QoQQ1</t>
+          <t>GDP Price Index QoQ AdvQ1</t>
         </is>
       </c>
       <c r="C1355" t="inlineStr"/>
       <c r="D1355" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E1355" t="inlineStr"/>
       <c r="F1355" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>127.3%</t>
         </is>
       </c>
       <c r="G1355" t="inlineStr">
@@ -35610,24 +35634,24 @@
       </c>
       <c r="B1356" t="inlineStr">
         <is>
-          <t>Employment Cost Index QoQQ1</t>
+          <t>Core PCE Prices QoQ AdvQ1</t>
         </is>
       </c>
       <c r="C1356" t="inlineStr"/>
       <c r="D1356" t="inlineStr">
         <is>
-          <t>0.9%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E1356" t="inlineStr"/>
       <c r="F1356" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G1356" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -35639,24 +35663,24 @@
       </c>
       <c r="B1357" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ AdvQ1</t>
+          <t>GDP Sales QoQ AdvQ1</t>
         </is>
       </c>
       <c r="C1357" t="inlineStr"/>
       <c r="D1357" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E1357" t="inlineStr"/>
       <c r="F1357" t="inlineStr">
         <is>
-          <t>127.3%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="G1357" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -35668,19 +35692,19 @@
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ AdvQ1</t>
+          <t>PCE Prices QoQ AdvQ1</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr"/>
       <c r="D1358" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1358" t="inlineStr"/>
       <c r="F1358" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="G1358" t="inlineStr">
@@ -35697,19 +35721,19 @@
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ AdvQ1</t>
+          <t>Real Consumer Spending QoQ AdvQ1</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr"/>
       <c r="D1359" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="E1359" t="inlineStr"/>
       <c r="F1359" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G1359" t="inlineStr">
@@ -35726,21 +35750,13 @@
       </c>
       <c r="B1360" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ AdvQ1</t>
+          <t>Treasury Refunding Announcement</t>
         </is>
       </c>
       <c r="C1360" t="inlineStr"/>
-      <c r="D1360" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
+      <c r="D1360" t="inlineStr"/>
       <c r="E1360" t="inlineStr"/>
-      <c r="F1360" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="F1360" t="inlineStr"/>
       <c r="G1360" t="inlineStr">
         <is>
           <t>3</t>
@@ -35750,79 +35766,95 @@
     <row r="1361">
       <c r="A1361" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1361" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ AdvQ1</t>
+          <t>Chicago PMIAPR</t>
         </is>
       </c>
       <c r="C1361" t="inlineStr"/>
       <c r="D1361" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>47.6</t>
         </is>
       </c>
       <c r="E1361" t="inlineStr"/>
       <c r="F1361" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>47.8</t>
         </is>
       </c>
       <c r="G1361" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1362">
       <c r="A1362" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1362" t="inlineStr">
         <is>
-          <t>Treasury Refunding Announcement</t>
+          <t>Core PCE Price Index MoMMAR</t>
         </is>
       </c>
       <c r="C1362" t="inlineStr"/>
-      <c r="D1362" t="inlineStr"/>
-      <c r="E1362" t="inlineStr"/>
-      <c r="F1362" t="inlineStr"/>
+      <c r="D1362" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E1362" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="F1362" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="G1362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1363">
       <c r="A1363" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Chicago PMIAPR</t>
+          <t>Personal Income MoMMAR</t>
         </is>
       </c>
       <c r="C1363" t="inlineStr"/>
       <c r="D1363" t="inlineStr">
         <is>
-          <t>47.6</t>
-        </is>
-      </c>
-      <c r="E1363" t="inlineStr"/>
+          <t>0.8%</t>
+        </is>
+      </c>
+      <c r="E1363" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="F1363" t="inlineStr">
         <is>
-          <t>47.8</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1363" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -35834,7 +35866,7 @@
       </c>
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMMAR</t>
+          <t>Personal Spending MoMMAR</t>
         </is>
       </c>
       <c r="C1364" t="inlineStr"/>
@@ -35845,12 +35877,12 @@
       </c>
       <c r="E1364" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F1364" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G1364" t="inlineStr">
@@ -35867,28 +35899,24 @@
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>Personal Income MoMMAR</t>
+          <t>PCE Price Index MoMMAR</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr"/>
       <c r="D1365" t="inlineStr">
         <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E1365" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E1365" t="inlineStr"/>
       <c r="F1365" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>0.0%</t>
         </is>
       </c>
       <c r="G1365" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35900,28 +35928,24 @@
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>Personal Spending MoMMAR</t>
+          <t>PCE Price Index YoYMAR</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr"/>
       <c r="D1366" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1366" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.5%</t>
+        </is>
+      </c>
+      <c r="E1366" t="inlineStr"/>
       <c r="F1366" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G1366" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -35933,19 +35957,19 @@
       </c>
       <c r="B1367" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMMAR</t>
+          <t>Pending Home Sales MoMMAR</t>
         </is>
       </c>
       <c r="C1367" t="inlineStr"/>
       <c r="D1367" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="E1367" t="inlineStr"/>
       <c r="F1367" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="G1367" t="inlineStr">
@@ -35962,19 +35986,19 @@
       </c>
       <c r="B1368" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYMAR</t>
+          <t>Pending Home Sales YoYMAR</t>
         </is>
       </c>
       <c r="C1368" t="inlineStr"/>
       <c r="D1368" t="inlineStr">
         <is>
-          <t>2.5%</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="E1368" t="inlineStr"/>
       <c r="F1368" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="G1368" t="inlineStr">
@@ -35991,50 +36015,46 @@
       </c>
       <c r="B1369" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMMAR</t>
+          <t>Core PCE Price Index YoYMAR</t>
         </is>
       </c>
       <c r="C1369" t="inlineStr"/>
       <c r="D1369" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="E1369" t="inlineStr"/>
       <c r="F1369" t="inlineStr">
         <is>
-          <t>0.8%</t>
+          <t>2.5%</t>
         </is>
       </c>
       <c r="G1369" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1370">
       <c r="A1370" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1370" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYMAR</t>
+          <t>EIA Crude Oil Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1370" t="inlineStr"/>
       <c r="D1370" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>0.244M</t>
         </is>
       </c>
       <c r="E1370" t="inlineStr"/>
-      <c r="F1370" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+      <c r="F1370" t="inlineStr"/>
       <c r="G1370" t="inlineStr">
         <is>
           <t>2</t>
@@ -36044,29 +36064,25 @@
     <row r="1371">
       <c r="A1371" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1371" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYMAR</t>
+          <t>EIA Gasoline Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1371" t="inlineStr"/>
       <c r="D1371" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-4.476M</t>
         </is>
       </c>
       <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr">
-        <is>
-          <t>2.5%</t>
-        </is>
-      </c>
+      <c r="F1371" t="inlineStr"/>
       <c r="G1371" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -36078,20 +36094,20 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeAPR/25</t>
+          <t>EIA Crude Oil Imports ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr"/>
       <c r="D1372" t="inlineStr">
         <is>
-          <t>0.244M</t>
+          <t>1.139M</t>
         </is>
       </c>
       <c r="E1372" t="inlineStr"/>
       <c r="F1372" t="inlineStr"/>
       <c r="G1372" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36103,20 +36119,20 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeAPR/25</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr"/>
       <c r="D1373" t="inlineStr">
         <is>
-          <t>-4.476M</t>
+          <t>-0.086M</t>
         </is>
       </c>
       <c r="E1373" t="inlineStr"/>
       <c r="F1373" t="inlineStr"/>
       <c r="G1373" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36128,13 +36144,13 @@
       </c>
       <c r="B1374" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeAPR/25</t>
+          <t>EIA Distillate Fuel Production ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1374" t="inlineStr"/>
       <c r="D1374" t="inlineStr">
         <is>
-          <t>1.139M</t>
+          <t>-0.062M</t>
         </is>
       </c>
       <c r="E1374" t="inlineStr"/>
@@ -36153,13 +36169,13 @@
       </c>
       <c r="B1375" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeAPR/25</t>
+          <t>EIA Distillate Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1375" t="inlineStr"/>
       <c r="D1375" t="inlineStr">
         <is>
-          <t>-0.086M</t>
+          <t>-2.353M</t>
         </is>
       </c>
       <c r="E1375" t="inlineStr"/>
@@ -36178,13 +36194,13 @@
       </c>
       <c r="B1376" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeAPR/25</t>
+          <t>EIA Gasoline Production ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1376" t="inlineStr"/>
       <c r="D1376" t="inlineStr">
         <is>
-          <t>-0.062M</t>
+          <t>0.661M</t>
         </is>
       </c>
       <c r="E1376" t="inlineStr"/>
@@ -36203,13 +36219,13 @@
       </c>
       <c r="B1377" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeAPR/25</t>
+          <t>EIA Heating Oil Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1377" t="inlineStr"/>
       <c r="D1377" t="inlineStr">
         <is>
-          <t>-2.353M</t>
+          <t>-0.021M</t>
         </is>
       </c>
       <c r="E1377" t="inlineStr"/>
@@ -36228,13 +36244,13 @@
       </c>
       <c r="B1378" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeAPR/25</t>
+          <t>EIA Refinery Crude Runs ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1378" t="inlineStr"/>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>0.661M</t>
+          <t>0.325M</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr"/>
@@ -36248,18 +36264,18 @@
     <row r="1379">
       <c r="A1379" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeAPR/25</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr"/>
       <c r="D1379" t="inlineStr">
         <is>
-          <t>-0.021M</t>
+          <t>4.210%</t>
         </is>
       </c>
       <c r="E1379" t="inlineStr"/>
@@ -36273,47 +36289,39 @@
     <row r="1380">
       <c r="A1380" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1380" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeAPR/25</t>
-        </is>
-      </c>
+          <t>Thursday May 01 2025</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr"/>
       <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr">
-        <is>
-          <t>0.325M</t>
-        </is>
-      </c>
+      <c r="D1380" t="inlineStr"/>
       <c r="E1380" t="inlineStr"/>
       <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1380" t="inlineStr"/>
     </row>
     <row r="1381">
       <c r="A1381" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>06:30 AM</t>
         </is>
       </c>
       <c r="B1381" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>Challenger Job CutsAPR</t>
         </is>
       </c>
       <c r="C1381" t="inlineStr"/>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>4.210%</t>
+          <t>275.24K</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr">
+        <is>
+          <t>290K</t>
+        </is>
+      </c>
       <c r="G1381" t="inlineStr">
         <is>
           <t>3</t>
@@ -36323,37 +36331,53 @@
     <row r="1382">
       <c r="A1382" t="inlineStr">
         <is>
-          <t>Thursday May 01 2025</t>
-        </is>
-      </c>
-      <c r="B1382" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr">
+        <is>
+          <t>Initial Jobless ClaimsAPR/26</t>
+        </is>
+      </c>
       <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr">
+        <is>
+          <t>222K</t>
+        </is>
+      </c>
       <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
+      <c r="G1382" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>Challenger Job CutsAPR</t>
+          <t>Continuing Jobless ClaimsAPR/19</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr"/>
       <c r="D1383" t="inlineStr">
         <is>
-          <t>275.24K</t>
+          <t>1841K</t>
         </is>
       </c>
       <c r="E1383" t="inlineStr"/>
       <c r="F1383" t="inlineStr">
         <is>
-          <t>290K</t>
+          <t>1844.0K</t>
         </is>
       </c>
       <c r="G1383" t="inlineStr">
@@ -36370,48 +36394,52 @@
       </c>
       <c r="B1384" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsAPR/26</t>
+          <t>Jobless Claims 4-week AverageAPR/26</t>
         </is>
       </c>
       <c r="C1384" t="inlineStr"/>
       <c r="D1384" t="inlineStr">
         <is>
-          <t>222K</t>
+          <t>220.25K</t>
         </is>
       </c>
       <c r="E1384" t="inlineStr"/>
       <c r="F1384" t="inlineStr">
         <is>
-          <t>225.0K</t>
+          <t>222.0K</t>
         </is>
       </c>
       <c r="G1384" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1385">
       <c r="A1385" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1385" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsAPR/19</t>
+          <t>S&amp;P Global Manufacturing PMI FinalAPR</t>
         </is>
       </c>
       <c r="C1385" t="inlineStr"/>
       <c r="D1385" t="inlineStr">
         <is>
-          <t>1841K</t>
-        </is>
-      </c>
-      <c r="E1385" t="inlineStr"/>
+          <t>50.2</t>
+        </is>
+      </c>
+      <c r="E1385" t="inlineStr">
+        <is>
+          <t>50.7</t>
+        </is>
+      </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t>1844.0K</t>
+          <t>50.7</t>
         </is>
       </c>
       <c r="G1385" t="inlineStr">
@@ -36423,62 +36451,62 @@
     <row r="1386">
       <c r="A1386" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageAPR/26</t>
+          <t>ISM Manufacturing PMIAPR</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr"/>
       <c r="D1386" t="inlineStr">
         <is>
-          <t>220.25K</t>
-        </is>
-      </c>
-      <c r="E1386" t="inlineStr"/>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E1386" t="inlineStr">
+        <is>
+          <t>47.9</t>
+        </is>
+      </c>
       <c r="F1386" t="inlineStr">
         <is>
-          <t>222.0K</t>
+          <t>47.2</t>
         </is>
       </c>
       <c r="G1386" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1387">
       <c r="A1387" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>S&amp;P Global Manufacturing PMI FinalAPR</t>
+          <t>ISM Manufacturing EmploymentAPR</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr"/>
       <c r="D1387" t="inlineStr">
         <is>
-          <t>50.2</t>
-        </is>
-      </c>
-      <c r="E1387" t="inlineStr">
-        <is>
-          <t>50.7</t>
-        </is>
-      </c>
+          <t>44.7</t>
+        </is>
+      </c>
+      <c r="E1387" t="inlineStr"/>
       <c r="F1387" t="inlineStr">
         <is>
-          <t>50.7</t>
+          <t>44.1</t>
         </is>
       </c>
       <c r="G1387" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -36490,28 +36518,24 @@
       </c>
       <c r="B1388" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PMIAPR</t>
+          <t>Construction Spending MoMMAR</t>
         </is>
       </c>
       <c r="C1388" t="inlineStr"/>
       <c r="D1388" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="E1388" t="inlineStr">
-        <is>
-          <t>47.9</t>
-        </is>
-      </c>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1388" t="inlineStr"/>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>47.2</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36523,24 +36547,24 @@
       </c>
       <c r="B1389" t="inlineStr">
         <is>
-          <t>ISM Manufacturing EmploymentAPR</t>
+          <t>ISM Manufacturing New OrdersAPR</t>
         </is>
       </c>
       <c r="C1389" t="inlineStr"/>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>44.7</t>
+          <t>45.2</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
       <c r="F1389" t="inlineStr">
         <is>
-          <t>44.1</t>
+          <t>44.3</t>
         </is>
       </c>
       <c r="G1389" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36552,19 +36576,19 @@
       </c>
       <c r="B1390" t="inlineStr">
         <is>
-          <t>Construction Spending MoMMAR</t>
+          <t>ISM Manufacturing PricesAPR</t>
         </is>
       </c>
       <c r="C1390" t="inlineStr"/>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>69.4</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr"/>
       <c r="F1390" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>70</t>
         </is>
       </c>
       <c r="G1390" t="inlineStr">
@@ -36576,26 +36600,22 @@
     <row r="1391">
       <c r="A1391" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1391" t="inlineStr">
         <is>
-          <t>ISM Manufacturing New OrdersAPR</t>
+          <t>EIA Natural Gas Stocks ChangeAPR/25</t>
         </is>
       </c>
       <c r="C1391" t="inlineStr"/>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>45.2</t>
+          <t>88Bcf</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr">
-        <is>
-          <t>44.3</t>
-        </is>
-      </c>
+      <c r="F1391" t="inlineStr"/>
       <c r="G1391" t="inlineStr">
         <is>
           <t>3</t>
@@ -36605,26 +36625,22 @@
     <row r="1392">
       <c r="A1392" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1392" t="inlineStr">
         <is>
-          <t>ISM Manufacturing PricesAPR</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1392" t="inlineStr"/>
       <c r="D1392" t="inlineStr">
         <is>
-          <t>69.4</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+      <c r="F1392" t="inlineStr"/>
       <c r="G1392" t="inlineStr">
         <is>
           <t>3</t>
@@ -36634,18 +36650,18 @@
     <row r="1393">
       <c r="A1393" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeAPR/25</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr"/>
       <c r="D1393" t="inlineStr">
         <is>
-          <t>88Bcf</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E1393" t="inlineStr"/>
@@ -36659,18 +36675,18 @@
     <row r="1394">
       <c r="A1394" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>15-Year Mortgage RateMAY/01</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr"/>
       <c r="D1394" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>5.94%</t>
         </is>
       </c>
       <c r="E1394" t="inlineStr"/>
@@ -36684,18 +36700,18 @@
     <row r="1395">
       <c r="A1395" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1395" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>30-Year Mortgage RateMAY/01</t>
         </is>
       </c>
       <c r="C1395" t="inlineStr"/>
       <c r="D1395" t="inlineStr">
         <is>
-          <t>4.225%</t>
+          <t>6.81%</t>
         </is>
       </c>
       <c r="E1395" t="inlineStr"/>
@@ -36709,18 +36725,18 @@
     <row r="1396">
       <c r="A1396" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1396" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/01</t>
+          <t>Fed Balance SheetAPR/30</t>
         </is>
       </c>
       <c r="C1396" t="inlineStr"/>
       <c r="D1396" t="inlineStr">
         <is>
-          <t>5.94%</t>
+          <t>$6.73T</t>
         </is>
       </c>
       <c r="E1396" t="inlineStr"/>
@@ -36734,65 +36750,81 @@
     <row r="1397">
       <c r="A1397" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1397" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/01</t>
-        </is>
-      </c>
+          <t>Friday May 02 2025</t>
+        </is>
+      </c>
+      <c r="B1397" t="inlineStr"/>
       <c r="C1397" t="inlineStr"/>
-      <c r="D1397" t="inlineStr">
-        <is>
-          <t>6.81%</t>
-        </is>
-      </c>
+      <c r="D1397" t="inlineStr"/>
       <c r="E1397" t="inlineStr"/>
       <c r="F1397" t="inlineStr"/>
-      <c r="G1397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1397" t="inlineStr"/>
     </row>
     <row r="1398">
       <c r="A1398" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1398" t="inlineStr">
         <is>
-          <t>Fed Balance SheetAPR/30</t>
+          <t>Non Farm PayrollsAPR</t>
         </is>
       </c>
       <c r="C1398" t="inlineStr"/>
       <c r="D1398" t="inlineStr">
         <is>
-          <t>$6.73T</t>
-        </is>
-      </c>
-      <c r="E1398" t="inlineStr"/>
-      <c r="F1398" t="inlineStr"/>
+          <t>228K</t>
+        </is>
+      </c>
+      <c r="E1398" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="F1398" t="inlineStr">
+        <is>
+          <t>140K</t>
+        </is>
+      </c>
       <c r="G1398" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1399">
       <c r="A1399" t="inlineStr">
         <is>
-          <t>Friday May 02 2025</t>
-        </is>
-      </c>
-      <c r="B1399" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1399" t="inlineStr">
+        <is>
+          <t>Unemployment RateAPR</t>
+        </is>
+      </c>
       <c r="C1399" t="inlineStr"/>
-      <c r="D1399" t="inlineStr"/>
-      <c r="E1399" t="inlineStr"/>
-      <c r="F1399" t="inlineStr"/>
-      <c r="G1399" t="inlineStr"/>
+      <c r="D1399" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="E1399" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="F1399" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
+      <c r="G1399" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" t="inlineStr">
@@ -36802,28 +36834,28 @@
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsAPR</t>
+          <t>Average Hourly Earnings MoMAPR</t>
         </is>
       </c>
       <c r="C1400" t="inlineStr"/>
       <c r="D1400" t="inlineStr">
         <is>
-          <t>228K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="E1400" t="inlineStr">
         <is>
-          <t>130K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F1400" t="inlineStr">
         <is>
-          <t>140K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G1400" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -36835,28 +36867,24 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>Unemployment RateAPR</t>
+          <t>Average Hourly Earnings YoYAPR</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr"/>
       <c r="D1401" t="inlineStr">
         <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1401" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+          <t>3.8%</t>
+        </is>
+      </c>
+      <c r="E1401" t="inlineStr"/>
       <c r="F1401" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="G1401" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -36868,23 +36896,19 @@
       </c>
       <c r="B1402" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMAPR</t>
+          <t>Participation RateAPR</t>
         </is>
       </c>
       <c r="C1402" t="inlineStr"/>
       <c r="D1402" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1402" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="E1402" t="inlineStr"/>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.5%</t>
         </is>
       </c>
       <c r="G1402" t="inlineStr">
@@ -36901,24 +36925,28 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYAPR</t>
+          <t>Average Weekly HoursAPR</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr"/>
       <c r="D1403" t="inlineStr">
         <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E1403" t="inlineStr"/>
+          <t>34.2</t>
+        </is>
+      </c>
+      <c r="E1403" t="inlineStr">
+        <is>
+          <t>34.2</t>
+        </is>
+      </c>
       <c r="F1403" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>34.2</t>
         </is>
       </c>
       <c r="G1403" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36930,24 +36958,24 @@
       </c>
       <c r="B1404" t="inlineStr">
         <is>
-          <t>Participation RateAPR</t>
+          <t>Government PayrollsAPR</t>
         </is>
       </c>
       <c r="C1404" t="inlineStr"/>
       <c r="D1404" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>19K</t>
         </is>
       </c>
       <c r="E1404" t="inlineStr"/>
       <c r="F1404" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>-3K</t>
         </is>
       </c>
       <c r="G1404" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -36959,23 +36987,19 @@
       </c>
       <c r="B1405" t="inlineStr">
         <is>
-          <t>Average Weekly HoursAPR</t>
+          <t>Manufacturing PayrollsAPR</t>
         </is>
       </c>
       <c r="C1405" t="inlineStr"/>
       <c r="D1405" t="inlineStr">
         <is>
-          <t>34.2</t>
-        </is>
-      </c>
-      <c r="E1405" t="inlineStr">
-        <is>
-          <t>34.2</t>
-        </is>
-      </c>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="E1405" t="inlineStr"/>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>34.2</t>
+          <t>5K</t>
         </is>
       </c>
       <c r="G1405" t="inlineStr">
@@ -36992,19 +37016,23 @@
       </c>
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Government PayrollsAPR</t>
+          <t>Nonfarm Payrolls PrivateAPR</t>
         </is>
       </c>
       <c r="C1406" t="inlineStr"/>
       <c r="D1406" t="inlineStr">
         <is>
-          <t>19K</t>
-        </is>
-      </c>
-      <c r="E1406" t="inlineStr"/>
+          <t>209K</t>
+        </is>
+      </c>
+      <c r="E1406" t="inlineStr">
+        <is>
+          <t>125K</t>
+        </is>
+      </c>
       <c r="F1406" t="inlineStr">
         <is>
-          <t>-3K</t>
+          <t>133K</t>
         </is>
       </c>
       <c r="G1406" t="inlineStr">
@@ -37021,19 +37049,19 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsAPR</t>
+          <t>U-6 Unemployment RateAPR</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr"/>
       <c r="D1407" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>7.9%</t>
         </is>
       </c>
       <c r="E1407" t="inlineStr"/>
       <c r="F1407" t="inlineStr">
         <is>
-          <t>5K</t>
+          <t>8.0%</t>
         </is>
       </c>
       <c r="G1407" t="inlineStr">
@@ -37045,57 +37073,57 @@
     <row r="1408">
       <c r="A1408" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateAPR</t>
+          <t>Factory Orders MoMMAR</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr"/>
       <c r="D1408" t="inlineStr">
         <is>
-          <t>209K</t>
+          <t>0.6%</t>
         </is>
       </c>
       <c r="E1408" t="inlineStr">
         <is>
-          <t>125K</t>
+          <t>1.1%</t>
         </is>
       </c>
       <c r="F1408" t="inlineStr">
         <is>
-          <t>133K</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="G1408" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1409">
       <c r="A1409" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1409" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateAPR</t>
+          <t>Factory Orders ex TransportationMAR</t>
         </is>
       </c>
       <c r="C1409" t="inlineStr"/>
       <c r="D1409" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E1409" t="inlineStr"/>
       <c r="F1409" t="inlineStr">
         <is>
-          <t>8.0%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1409" t="inlineStr">
@@ -37107,55 +37135,39 @@
     <row r="1410">
       <c r="A1410" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1410" t="inlineStr">
         <is>
-          <t>Factory Orders MoMMAR</t>
+          <t>Baker Hughes Oil Rig CountMAY/02</t>
         </is>
       </c>
       <c r="C1410" t="inlineStr"/>
-      <c r="D1410" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
+      <c r="D1410" t="inlineStr"/>
       <c r="E1410" t="inlineStr"/>
-      <c r="F1410" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
+      <c r="F1410" t="inlineStr"/>
       <c r="G1410" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1411">
       <c r="A1411" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1411" t="inlineStr">
         <is>
-          <t>Factory Orders ex TransportationMAR</t>
+          <t>Baker Hughes Total Rigs CountMAY/02</t>
         </is>
       </c>
       <c r="C1411" t="inlineStr"/>
-      <c r="D1411" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D1411" t="inlineStr"/>
       <c r="E1411" t="inlineStr"/>
-      <c r="F1411" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1411" t="inlineStr"/>
       <c r="G1411" t="inlineStr">
         <is>
           <t>3</t>
@@ -37163,18 +37175,18 @@
       </c>
     </row>
     <row r="1412">
-      <c r="A1412" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A1412" t="inlineStr"/>
       <c r="B1412" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/02</t>
+          <t>Total Vehicle SalesAPR</t>
         </is>
       </c>
       <c r="C1412" t="inlineStr"/>
-      <c r="D1412" t="inlineStr"/>
+      <c r="D1412" t="inlineStr">
+        <is>
+          <t>17.77M</t>
+        </is>
+      </c>
       <c r="E1412" t="inlineStr"/>
       <c r="F1412" t="inlineStr"/>
       <c r="G1412" t="inlineStr">
@@ -37186,70 +37198,28 @@
     <row r="1413">
       <c r="A1413" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1413" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/02</t>
-        </is>
-      </c>
+          <t>Sunday May 04 2025</t>
+        </is>
+      </c>
+      <c r="B1413" t="inlineStr"/>
       <c r="C1413" t="inlineStr"/>
       <c r="D1413" t="inlineStr"/>
       <c r="E1413" t="inlineStr"/>
       <c r="F1413" t="inlineStr"/>
-      <c r="G1413" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1413" t="inlineStr"/>
     </row>
     <row r="1414">
-      <c r="A1414" t="inlineStr"/>
-      <c r="B1414" t="inlineStr">
-        <is>
-          <t>Total Vehicle SalesAPR</t>
-        </is>
-      </c>
+      <c r="A1414" t="inlineStr">
+        <is>
+          <t>Monday May 05 2025</t>
+        </is>
+      </c>
+      <c r="B1414" t="inlineStr"/>
       <c r="C1414" t="inlineStr"/>
-      <c r="D1414" t="inlineStr">
-        <is>
-          <t>17.77M</t>
-        </is>
-      </c>
+      <c r="D1414" t="inlineStr"/>
       <c r="E1414" t="inlineStr"/>
       <c r="F1414" t="inlineStr"/>
-      <c r="G1414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1415">
-      <c r="A1415" t="inlineStr">
-        <is>
-          <t>Sunday May 04 2025</t>
-        </is>
-      </c>
-      <c r="B1415" t="inlineStr"/>
-      <c r="C1415" t="inlineStr"/>
-      <c r="D1415" t="inlineStr"/>
-      <c r="E1415" t="inlineStr"/>
-      <c r="F1415" t="inlineStr"/>
-      <c r="G1415" t="inlineStr"/>
-    </row>
-    <row r="1416">
-      <c r="A1416" t="inlineStr">
-        <is>
-          <t>Monday May 05 2025</t>
-        </is>
-      </c>
-      <c r="B1416" t="inlineStr"/>
-      <c r="C1416" t="inlineStr"/>
-      <c r="D1416" t="inlineStr"/>
-      <c r="E1416" t="inlineStr"/>
-      <c r="F1416" t="inlineStr"/>
-      <c r="G1416" t="inlineStr"/>
+      <c r="G1414" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
